--- a/core_app/preprocesado.xlsx
+++ b/core_app/preprocesado.xlsx
@@ -25,25 +25,25 @@
     <t>age</t>
   </si>
   <si>
-    <t>infection_department</t>
+    <t>evolution_time</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
-    <t>evolution_time</t>
-  </si>
-  <si>
     <t>number_active_injuries</t>
-  </si>
-  <si>
-    <t>ulcer_area</t>
   </si>
   <si>
     <t>glucantime_dosage</t>
   </si>
   <si>
     <t>cure_or_fail</t>
+  </si>
+  <si>
+    <t>infection_department</t>
+  </si>
+  <si>
+    <t>ulcer_area</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,66 +441,66 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1212121212121213</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="E2">
-        <v>0.7878787878787881</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.05754470347987461</v>
       </c>
       <c r="H2">
-        <v>0.02564102564102564</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0179372197309417</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06060606060606066</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="E3">
-        <v>0.2424242424242422</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7142857142857142</v>
+        <v>0.08152173236998417</v>
       </c>
       <c r="H3">
-        <v>0.01065780822865843</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2857142857142858</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04172353285240787</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -511,153 +511,153 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.002380952380952381</v>
       </c>
       <c r="E4">
-        <v>0.3939393939393936</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.2105263157894737</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G4">
-        <v>0.7142857142857142</v>
+        <v>0.1067819714105049</v>
       </c>
       <c r="H4">
-        <v>0.02021984613077731</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2620393838954962</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.5151515151515151</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.002380952380952381</v>
       </c>
       <c r="E5">
-        <v>0.2424242424242422</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.05263157894736842</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1067819714105049</v>
       </c>
       <c r="H5">
-        <v>0.04275811158402251</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02924546695262233</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2121212121212122</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E6">
-        <v>0.6666666666666661</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.05263157894736842</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G6">
-        <v>0.2857142857142857</v>
+        <v>0.1184745358612611</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.002729576915578086</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666667</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E7">
-        <v>0.4242424242424239</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>0.1052631578947368</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G7">
-        <v>0.1428571428571428</v>
+        <v>0.1184745358612611</v>
       </c>
       <c r="H7">
-        <v>0.007243618579650967</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1298498732696432</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E8">
-        <v>0.4545454545454541</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.1052631578947368</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G8">
-        <v>0.2857142857142857</v>
+        <v>0.1184745358612611</v>
       </c>
       <c r="H8">
-        <v>0.03881333840848011</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -671,28 +671,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6363636363636365</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.002380952380952381</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.1020272833760065</v>
       </c>
       <c r="H9">
-        <v>0.2111837779853974</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4285714285714286</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.06667966465197894</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333334</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06060606060606055</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0.1052631578947368</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1024692906529561</v>
       </c>
       <c r="H10">
-        <v>0.05653021442495126</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.05498147787093</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,63 +732,63 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1212121212121213</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2727272727272725</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999999</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G11">
-        <v>0.4285714285714285</v>
+        <v>0.1024692906529561</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.04250341197114446</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2121212121212122</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4848484848484844</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0.3157894736842105</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G12">
-        <v>0.2857142857142857</v>
+        <v>0.107989820564119</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.05439656853187755</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -799,220 +799,7548 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06060606060606066</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1212121212121211</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0.5789473684210525</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G13">
-        <v>0.2857142857142857</v>
+        <v>0.107989820564119</v>
       </c>
       <c r="H13">
-        <v>0.002837468424512959</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08461688438292064</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2727272727272728</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.1052631578947368</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G14">
-        <v>0.2857142857142857</v>
+        <v>0.0698758150286618</v>
       </c>
       <c r="H14">
-        <v>0.06402759034337982</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.132189510625853</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4848484848484849</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4242424242424239</v>
+        <v>0.5</v>
       </c>
       <c r="F15">
-        <v>0.3157894736842105</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0698758150286618</v>
       </c>
       <c r="H15">
-        <v>0.01550226651441226</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0005849093390524469</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3030303030303031</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9696969696969697</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>0.9999999999999999</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.1222825985549763</v>
       </c>
       <c r="H16">
-        <v>0.005767212244945038</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01754728017157341</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5151515151515151</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5151515151515147</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.05263157894736842</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1222825985549763</v>
       </c>
       <c r="H17">
-        <v>0.1183085919928025</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.008383700526418403</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3030303030303031</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.002380952380952381</v>
       </c>
       <c r="E18">
-        <v>0.7272727272727266</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.3157894736842105</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.1057217344431887</v>
       </c>
       <c r="H18">
-        <v>0.5699159140454686</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.5000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.01754728017157341</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3636363636363638</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="E19">
-        <v>0.7272727272727266</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.5263157894736842</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.1072067710870848</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.08305712614544744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="D20">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G20">
+        <v>0.1072067710870848</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.1762526808344707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.09171194891623213</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.05342171963345681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G22">
+        <v>0.1062397246783942</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.02027685708715149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G23">
+        <v>0.1062397246783942</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="D24">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.1076520954918161</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J24">
+        <v>0.08908948986821759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="D25">
+        <v>0.003571428571428572</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.110574692388228</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J25">
+        <v>0.25316434432201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="D26">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.1023285200427082</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J26">
+        <v>0.1751939883039672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>0.5396825396825397</v>
+      </c>
+      <c r="D27">
+        <v>0.004999999772934686</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G27">
+        <v>0.09938270325182152</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.06153831089976976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>0.5396825396825397</v>
+      </c>
+      <c r="D28">
+        <v>0.004999999772934686</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G28">
+        <v>0.09938270325182152</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.07805614969748505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D29">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G29">
+        <v>0.106434813256072</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J29">
+        <v>0.2528952981417442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D30">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G30">
+        <v>0.106434813256072</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J30">
+        <v>0.08536556951203385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D31">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G31">
+        <v>0.106434813256072</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J31">
+        <v>0.1777929396024106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D32">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G32">
+        <v>0.106434813256072</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J32">
+        <v>0.1462448821027833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D33">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G33">
+        <v>0.106434813256072</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J33">
+        <v>0.1155975843456712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D34">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G34">
+        <v>0.106434813256072</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J34">
+        <v>0.1989674276767315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D35">
+        <v>0.001190476190476191</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G35">
+        <v>0.1078229275725882</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J35">
+        <v>0.003696627037686472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D36">
+        <v>0.001190476190476191</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G36">
+        <v>0.1078229275725882</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J36">
+        <v>0.01264183988625089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D37">
+        <v>0.001190476190476191</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G37">
+        <v>0.1078229275725882</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J37">
+        <v>0.01889257204186314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G38">
+        <v>0.1083011122744095</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J38">
+        <v>0.278816527710437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G39">
+        <v>0.1083011122744095</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J39">
+        <v>0.1646851210836824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.3</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0.0854037048170917</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="J40">
+        <v>0.003704425813998831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D41">
+        <v>0.05476190476190477</v>
+      </c>
+      <c r="E41">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.1249999481698785</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.03925131655920083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D42">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E42">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J42">
+        <v>0.01327744234977212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D43">
+        <v>0.04523809523809524</v>
+      </c>
+      <c r="E43">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="F43">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G43">
+        <v>0.1043478215799896</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J43">
+        <v>0.04562292844609086</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D44">
+        <v>0.04523809523809524</v>
+      </c>
+      <c r="E44">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="F44">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G44">
+        <v>0.1043478215799896</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J44">
+        <v>0.02363033819021967</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D45">
+        <v>0.04523809523809524</v>
+      </c>
+      <c r="E45">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="F45">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G45">
+        <v>0.1043478215799896</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J45">
+        <v>0.07790992106115827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D46">
+        <v>0.02619047619047619</v>
+      </c>
+      <c r="E46">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="F46">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G46">
+        <v>0.1147342669665903</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J46">
+        <v>0.003509456034314682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D47">
+        <v>0.02619047619047619</v>
+      </c>
+      <c r="E47">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="F47">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G47">
+        <v>0.1147342669665903</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J47">
+        <v>0.003704425813998831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.8166666666666669</v>
+      </c>
+      <c r="F48">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G48">
+        <v>0.08433279084472733</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J48">
+        <v>0.009941508502703617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.8166666666666669</v>
+      </c>
+      <c r="F49">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G49">
+        <v>0.08433279084472733</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J49">
+        <v>0.05506277929214172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.8166666666666669</v>
+      </c>
+      <c r="F50">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G50">
+        <v>0.08433279084472733</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J50">
+        <v>0.005063989520244938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.8166666666666669</v>
+      </c>
+      <c r="F51">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G51">
+        <v>0.08433279084472733</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J51">
+        <v>0.009293507288268818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.8166666666666669</v>
+      </c>
+      <c r="F52">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G52">
+        <v>0.08433279084472733</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J52">
+        <v>0.01228251057783051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.8166666666666669</v>
+      </c>
+      <c r="F53">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G53">
+        <v>0.08433279084472733</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J53">
+        <v>0.03719877285621719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D54">
+        <v>0.02619047619047619</v>
+      </c>
+      <c r="E54">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.1372997543252235</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D55">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E55">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.0736985767206083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D56">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E56">
+        <v>0.45</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0.137467994899916</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D57">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E57">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F57">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G57">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D58">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E58">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F58">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G58">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="F59">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G59">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.007018912068629362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="F60">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G60">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.003509456034314682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="F61">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G61">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.01052836810294404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.5166666666666666</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.1479468015631964</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.01813218951062585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="F63">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G63">
+        <v>0.03105588323710218</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.02242152466367713</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="F64">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G64">
+        <v>0.03105588323710218</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="F65">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G65">
+        <v>0.03105588323710218</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.01637746149346851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F66">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G66">
+        <v>0.1340579875400387</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.02612595047767597</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F67">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G67">
+        <v>0.1340579875400387</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.02222655488399298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F68">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G68">
+        <v>0.1340579875400387</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.00565412361084032</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F69">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G69">
+        <v>0.1340579875400387</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.05186196139598361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F70">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G70">
+        <v>0.1372997543252235</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.01754728017157341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F71">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G71">
+        <v>0.1372997543252235</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.005849093390524469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D72">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E72">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0.1268116182400563</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.06161045038019106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0.5</v>
+      </c>
+      <c r="C73">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0.3</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.01813218951062585</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D74">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E74">
+        <v>0.45</v>
+      </c>
+      <c r="F74">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G74">
+        <v>0.03702816448807367</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.02456619224020277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D75">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E75">
+        <v>0.45</v>
+      </c>
+      <c r="F75">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G75">
+        <v>0.03702816448807367</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.01637746149346851</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D76">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E76">
+        <v>0.45</v>
+      </c>
+      <c r="F76">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G76">
+        <v>0.03702816448807367</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.01111327744199649</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D77">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E77">
+        <v>0.45</v>
+      </c>
+      <c r="F77">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G77">
+        <v>0.03702816448807367</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.008578670306102557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D78">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E78">
+        <v>0.45</v>
+      </c>
+      <c r="F78">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G78">
+        <v>0.03702816448807367</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.01286800545915383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F79">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G79">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.03938389549619811</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F80">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G80">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.01657243127315266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F81">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G81">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.01286800545915383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F82">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G82">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.01637746149346851</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D83">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E83">
+        <v>0.5333333333333334</v>
+      </c>
+      <c r="F83">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G83">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.1922402027685709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D84">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E84">
+        <v>0.5333333333333334</v>
+      </c>
+      <c r="F84">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G84">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.04796256580230066</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D85">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E85">
+        <v>0.7833333333333332</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.01813218951062585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>0.5</v>
+      </c>
+      <c r="C86">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D86">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E86">
+        <v>0.6833333333333331</v>
+      </c>
+      <c r="F86">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G86">
+        <v>0.1205104230374525</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.02027685708715149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>0.5</v>
+      </c>
+      <c r="C87">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D87">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E87">
+        <v>0.6833333333333331</v>
+      </c>
+      <c r="F87">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G87">
+        <v>0.1205104230374525</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.009748488984207444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D88">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E88">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F88">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G88">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D89">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E89">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F89">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G89">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.01637746149346851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D90">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E90">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F90">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G90">
+        <v>0.1482212938871557</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.02164164554494053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D91">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E91">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F91">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G91">
+        <v>0.1482212938871557</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.03626437902125172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D92">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E92">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F92">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G92">
+        <v>0.1482212938871557</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.02339637356209788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D93">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E93">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F93">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G93">
+        <v>0.1482212938871557</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.03684928836030415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0.55</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0.127717401445024</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.008383700526418403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G95">
+        <v>0.1152832516145081</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.02924546695262233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G96">
+        <v>0.1152832516145081</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.06511990641450575</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G97">
+        <v>0.1152832516145081</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.01657243127315266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G98">
+        <v>0.1152832516145081</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.1339442386430103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G99">
+        <v>0.1152832516145081</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.03704425813998831</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G100">
+        <v>0.1152832516145081</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.01247806589978553</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D101">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E101">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.1152832516145081</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.06161045038019106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0.8333333333333335</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.1420056183851806</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0.01286800545915383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F103">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G103">
+        <v>0.1130434647399681</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0.005849093390524469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F104">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G104">
+        <v>0.1130434647399681</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0.005849093390524469</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0.25</v>
+      </c>
+      <c r="C105">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0.75</v>
+      </c>
+      <c r="F105">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G105">
+        <v>0.1147342669665903</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>0.25</v>
+      </c>
+      <c r="C106">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0.75</v>
+      </c>
+      <c r="F106">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G106">
+        <v>0.1147342669665903</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0.008188730746734256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0.25</v>
+      </c>
+      <c r="C107">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0.75</v>
+      </c>
+      <c r="F107">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G107">
+        <v>0.1147342669665903</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0.01637746149346851</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>0.25</v>
+      </c>
+      <c r="C108">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0.75</v>
+      </c>
+      <c r="F108">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G108">
+        <v>0.1147342669665903</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0.01637746149346851</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D109">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E109">
+        <v>0.45</v>
+      </c>
+      <c r="F109">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G109">
+        <v>0.0698758150286618</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0.04328329108988106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D110">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E110">
+        <v>0.45</v>
+      </c>
+      <c r="F110">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G110">
+        <v>0.0698758150286618</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0.004679274712419575</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0.25</v>
+      </c>
+      <c r="C111">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0.5</v>
+      </c>
+      <c r="F111">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J111">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0.25</v>
+      </c>
+      <c r="C112">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0.5</v>
+      </c>
+      <c r="F112">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J112">
+        <v>0.01247806589978553</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0.25</v>
+      </c>
+      <c r="C113">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0.5</v>
+      </c>
+      <c r="F113">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J113">
+        <v>0.009748488984207444</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D114">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E114">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F114">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G114">
+        <v>0.08867273424623456</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J114">
+        <v>0.008635601428964024</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D115">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E115">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F115">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G115">
+        <v>0.08867273424623456</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J115">
+        <v>0.009924117876730785</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0.3</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0.2141944044200725</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J116">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D117">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E117">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0.1340579875400387</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J117">
+        <v>0.002769194740151118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J118">
+        <v>0.00409027087170145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>0.25</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E119">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="F119">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G119">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J119">
+        <v>0.010412946103818</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>0.25</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E120">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="F120">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G120">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J120">
+        <v>0.01424351623030894</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>0.25</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E121">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="F121">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G121">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J121">
+        <v>0.00332228499375535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0.2833333333333334</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J122">
+        <v>0.007506180956954499</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D123">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E123">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F123">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G123">
+        <v>0.1304347510599257</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J123">
+        <v>0.05883345656250849</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>0.5</v>
+      </c>
+      <c r="C124">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D124">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E124">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F124">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G124">
+        <v>0.1304347510599257</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J124">
+        <v>0.05779965069458994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>0.5</v>
+      </c>
+      <c r="C125">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D125">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E125">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F125">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G125">
+        <v>0.1304347510599257</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J125">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>0.5</v>
+      </c>
+      <c r="C126">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F126">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G126">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J126">
+        <v>0.00507722767807396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>0.5</v>
+      </c>
+      <c r="C127">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F127">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G127">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J127">
+        <v>0.005908910273520145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>0.5</v>
+      </c>
+      <c r="C128">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D128">
+        <v>0.007142857142857144</v>
+      </c>
+      <c r="E128">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="F128">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G128">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J128">
+        <v>0.04156500161948734</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>0.5</v>
+      </c>
+      <c r="C129">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="D129">
+        <v>0.007142857142857144</v>
+      </c>
+      <c r="E129">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="F129">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G129">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J129">
+        <v>0.01641840516207719</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>0.5</v>
+      </c>
+      <c r="C130">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0.2166666666666668</v>
+      </c>
+      <c r="F130">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G130">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J130">
+        <v>0.002910898897145358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>0.5</v>
+      </c>
+      <c r="C131">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0.2166666666666668</v>
+      </c>
+      <c r="F131">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G131">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J131">
+        <v>0.009788692041465145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>0.5</v>
+      </c>
+      <c r="C132">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0.2166666666666668</v>
+      </c>
+      <c r="F132">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G132">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J132">
+        <v>0.02160701867689465</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>0.5</v>
+      </c>
+      <c r="C133">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F133">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G133">
+        <v>0.2875905213073628</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J133">
+        <v>0.0005542210789585833</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F134">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G134">
+        <v>0.2875905213073628</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J134">
+        <v>0.004007116538271102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F135">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G135">
+        <v>0.2875905213073628</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J135">
+        <v>0.003644959785757439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0.5</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="G136">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J136">
+        <v>0.002081282894214845</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="G137">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J137">
+        <v>0.004295457034409455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>0.5</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="G138">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J138">
+        <v>0.0008134528117143625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>0.5</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="G139">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J139">
+        <v>0.002934509489758947</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0.5</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="G140">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J140">
+        <v>0.01435689214768524</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>0.5</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="G141">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J141">
+        <v>0.1090104749468713</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>0.5</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="G142">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J142">
+        <v>0.003617079346378447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>0.5</v>
+      </c>
+      <c r="C143">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D143">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E143">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F143">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G143">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J143">
+        <v>0.01864184047976391</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>0.5</v>
+      </c>
+      <c r="C144">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D144">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E144">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F144">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G144">
+        <v>0.1086956431599788</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J144">
+        <v>0.005198830248333828</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D145">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E145">
+        <v>0.5</v>
+      </c>
+      <c r="F145">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G145">
+        <v>0.1355341094030207</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J145">
+        <v>0.02677340476440859</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D146">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E146">
+        <v>0.5</v>
+      </c>
+      <c r="F146">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G146">
+        <v>0.1355341094030207</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J146">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D147">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E147">
+        <v>0.75</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0.1484114067731601</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J147">
+        <v>0.0231846759687555</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>0.5</v>
+      </c>
+      <c r="C148">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="D148">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E148">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0.1043478215799896</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J148">
+        <v>0.008455761390607188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0.25</v>
+      </c>
+      <c r="C149">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D149">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E149">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0.07427536307000149</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J149">
+        <v>0.01190875436065489</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>0.5</v>
+      </c>
+      <c r="C150">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D150">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E150">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0.1494565093449709</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J150">
+        <v>0.01253470558468468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>0.5</v>
+      </c>
+      <c r="C151">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D151">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E151">
+        <v>0.75</v>
+      </c>
+      <c r="F151">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G151">
+        <v>0.1340579875400387</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J151">
+        <v>0.002307272541427689</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>0.5</v>
+      </c>
+      <c r="C152">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D152">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E152">
+        <v>0.75</v>
+      </c>
+      <c r="F152">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G152">
+        <v>0.1340579875400387</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J152">
+        <v>0.009079547164732551</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>0.5</v>
+      </c>
+      <c r="C153">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D153">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E153">
+        <v>0.9333333333333331</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0.1054314857622658</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J153">
+        <v>0.05971503080954491</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>0.5</v>
+      </c>
+      <c r="C154">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D154">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E154">
+        <v>0.8166666666666669</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0.1219511967575075</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J154">
+        <v>0.004592513010780304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>0.5</v>
+      </c>
+      <c r="C155">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D155">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E155">
+        <v>0.4833333333333334</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0.1418851651825976</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J155">
+        <v>0.008292727880688012</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0.5</v>
+      </c>
+      <c r="C156">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D156">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E156">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F156">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G156">
+        <v>0.1124567477635303</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J156">
+        <v>0.01777539498300713</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0.5</v>
+      </c>
+      <c r="C157">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D157">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E157">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F157">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G157">
+        <v>0.1124567477635303</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J157">
+        <v>0.004999960983805912</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>0.5</v>
+      </c>
+      <c r="C158">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D158">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E158">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F158">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G158">
+        <v>0.1124567477635303</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="J158">
+        <v>0.003397679898501323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>0.5</v>
+      </c>
+      <c r="C159">
+        <v>0.3492063492063492</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0.5</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0.1387086006903773</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0.1016559951557614</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="D160">
+        <v>0.05476190476190477</v>
+      </c>
+      <c r="E160">
+        <v>0.5</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0.1222825985549763</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0.002253090364497455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>0.5</v>
+      </c>
+      <c r="C161">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D161">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E161">
+        <v>0.5</v>
+      </c>
+      <c r="F161">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G161">
+        <v>0.1222825985549763</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0.001949697796841489</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>0.5</v>
+      </c>
+      <c r="C162">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D162">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E162">
+        <v>0.5</v>
+      </c>
+      <c r="F162">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G162">
+        <v>0.1222825985549763</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0.003704425813998831</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="C163">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D163">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E163">
+        <v>0.5</v>
+      </c>
+      <c r="F163">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G163">
+        <v>0.1222825985549763</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0.001949697796841489</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>0.25</v>
+      </c>
+      <c r="C164">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D164">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E164">
+        <v>0.5</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.137154837305248</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J164">
+        <v>0.03098381998646354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>0.5</v>
+      </c>
+      <c r="C165">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D165">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E165">
+        <v>0.5</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.0940635851931706</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="D166">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E166">
+        <v>0.5</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0.1036866765489433</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J166">
+        <v>0.05930980452554085</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>0.5</v>
+      </c>
+      <c r="C167">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="D167">
+        <v>0.05476190476190477</v>
+      </c>
+      <c r="E167">
+        <v>0.5</v>
+      </c>
+      <c r="F167">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G167">
+        <v>0.1083515948128415</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>0.5</v>
+      </c>
+      <c r="C168">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="D168">
+        <v>0.05476190476190477</v>
+      </c>
+      <c r="E168">
+        <v>0.5</v>
+      </c>
+      <c r="F168">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G168">
+        <v>0.1083515948128415</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>0.5</v>
+      </c>
+      <c r="C169">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="D169">
+        <v>0.05476190476190477</v>
+      </c>
+      <c r="E169">
+        <v>0.5</v>
+      </c>
+      <c r="F169">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G169">
+        <v>0.1083515948128415</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="D170">
+        <v>0.09285714285714286</v>
+      </c>
+      <c r="E170">
+        <v>0.5</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0.1053511490737959</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J170">
+        <v>0.0130239818779017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0.3492063492063492</v>
+      </c>
+      <c r="D171">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E171">
+        <v>0.5</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0.1048136707128713</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J171">
+        <v>0.1743029830376292</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D172">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E172">
+        <v>0.5</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0.1078229275725882</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J172">
+        <v>0.1657106673831385</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>0.5</v>
+      </c>
+      <c r="C173">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="D173">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E173">
+        <v>0.5</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0.08018524085457512</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J173">
+        <v>0.06242152739324217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>0.5</v>
+      </c>
+      <c r="C174">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0.5</v>
+      </c>
+      <c r="F174">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G174">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J174">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>0.5</v>
+      </c>
+      <c r="C175">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0.5</v>
+      </c>
+      <c r="F175">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G175">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J175">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>0.5</v>
+      </c>
+      <c r="C176">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0.5</v>
+      </c>
+      <c r="F176">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G176">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J176">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0.3492063492063492</v>
+      </c>
+      <c r="D177">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E177">
+        <v>0.5</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0.1044535550280399</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J177">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>0.5</v>
+      </c>
+      <c r="C178">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="D178">
+        <v>0.05476190476190477</v>
+      </c>
+      <c r="E178">
+        <v>0.5</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0.1085258476816384</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0.02634431643754701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D179">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E179">
+        <v>0.5</v>
+      </c>
+      <c r="F179">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G179">
+        <v>0.1109367776176804</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J179">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D180">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E180">
+        <v>0.5</v>
+      </c>
+      <c r="F180">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G180">
+        <v>0.1109367776176804</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J180">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="C181">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D181">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E181">
+        <v>0.5</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0.00108812157273297</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="J181">
+        <v>0.09938389529538537</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="D182">
+        <v>0.02619047619047619</v>
+      </c>
+      <c r="E182">
+        <v>0.5</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0.1382324891934197</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>0.5</v>
+      </c>
+      <c r="F183">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G183">
+        <v>0.1053511490737959</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0.1620198869175278</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>0.5</v>
+      </c>
+      <c r="F184">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G184">
+        <v>0.1053511490737959</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0.4355624878143888</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0.5</v>
+      </c>
+      <c r="F185">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G185">
+        <v>0.1042409478692639</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0.06122051082082276</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0.5</v>
+      </c>
+      <c r="F186">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G186">
+        <v>0.1042409478692639</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0.04250341197114446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="D187">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E187">
+        <v>0.5</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0.09083850770713875</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0.1080132579450185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0.5</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0.103198125822803</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0.1002144667576526</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0.5</v>
+      </c>
+      <c r="F189">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G189">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0.04094365373367127</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0.5</v>
+      </c>
+      <c r="F190">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G190">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0.009748488984207444</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0.5</v>
+      </c>
+      <c r="F191">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G191">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0.00760382140768181</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0.5</v>
+      </c>
+      <c r="F192">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G192">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0.01052836810294404</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0.5</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0.06549026112015266</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0.01247806589978553</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0.5</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0.06706960421134724</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D195">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E195">
+        <v>0.5</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0.1029748416589784</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0.001949697796841489</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0.8095238095238094</v>
+      </c>
+      <c r="D196">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E196">
+        <v>0.5</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0.1058565964195752</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0.4934685123805809</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0.5</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0.1042409478692639</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0.07252875804250343</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="D198">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E198">
+        <v>0.5</v>
+      </c>
+      <c r="F198">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G198">
+        <v>0.08859250121800755</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0.02924546695262233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="D199">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E199">
+        <v>0.5</v>
+      </c>
+      <c r="F199">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G199">
+        <v>0.08859250121800755</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0.02690582959641256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D200">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E200">
+        <v>0.5</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D201">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E201">
+        <v>0.5</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D202">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E202">
+        <v>0.5</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D203">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E203">
+        <v>0.5</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D204">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E204">
+        <v>0.5</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D205">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E205">
+        <v>0.5</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D206">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E206">
+        <v>0.5</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="D207">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E207">
+        <v>0.5</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0.07578071712156254</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0.7460317460317459</v>
+      </c>
+      <c r="D208">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E208">
+        <v>0.5</v>
+      </c>
+      <c r="F208">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G208">
+        <v>0.04550052348422828</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0.04094365373367127</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0.7460317460317459</v>
+      </c>
+      <c r="D209">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E209">
+        <v>0.5</v>
+      </c>
+      <c r="F209">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G209">
+        <v>0.04550052348422828</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0.03002534607135893</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0.7460317460317459</v>
+      </c>
+      <c r="D210">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E210">
+        <v>0.5</v>
+      </c>
+      <c r="F210">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G210">
+        <v>0.04550052348422828</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0.5</v>
+      </c>
+      <c r="F211">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G211">
+        <v>0.06862950792482558</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0.01052836810294404</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0.5</v>
+      </c>
+      <c r="F212">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G212">
+        <v>0.06862950792482558</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0.0005849093390524469</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0.5</v>
+      </c>
+      <c r="F213">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G213">
+        <v>0.06862950792482558</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0.001169818678104894</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D214">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E214">
+        <v>0.5</v>
+      </c>
+      <c r="F214">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G214">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0.1107428348605966</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D215">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E215">
+        <v>0.5</v>
+      </c>
+      <c r="F215">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G215">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0.001949697796841489</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0.2698412698412698</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0.5</v>
+      </c>
+      <c r="F216">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G216">
+        <v>0.1072066674268417</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0.0438682004289335</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0.2698412698412698</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0.5</v>
+      </c>
+      <c r="F217">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G217">
+        <v>0.1072066674268417</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0.08656658217976214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0.2698412698412698</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0.5</v>
+      </c>
+      <c r="F218">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G218">
+        <v>0.1072066674268417</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0.08617664262039382</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="D219">
+        <v>0.01428571428571429</v>
+      </c>
+      <c r="E219">
+        <v>0.5</v>
+      </c>
+      <c r="F219">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G219">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0.001949697796841489</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="D220">
+        <v>0.01428571428571429</v>
+      </c>
+      <c r="E220">
+        <v>0.5</v>
+      </c>
+      <c r="F220">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G220">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0.04854747514135309</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="D221">
+        <v>0.01428571428571429</v>
+      </c>
+      <c r="E221">
+        <v>0.5</v>
+      </c>
+      <c r="F221">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G221">
+        <v>0.08678124578880264</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0.007018912068629362</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0.5</v>
+      </c>
+      <c r="F222">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G222">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0.03158510430883212</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0.5</v>
+      </c>
+      <c r="F223">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G223">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0.02671085981672841</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0.5</v>
+      </c>
+      <c r="F224">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G224">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0.01462273347631117</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D225">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E225">
+        <v>0.5</v>
+      </c>
+      <c r="F225">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G225">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0.04191850263209203</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D226">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E226">
+        <v>0.5</v>
+      </c>
+      <c r="F226">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G226">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0.0179372197309417</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D227">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E227">
+        <v>0.5</v>
+      </c>
+      <c r="F227">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G227">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0.05147202183661531</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D228">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E228">
+        <v>0.5</v>
+      </c>
+      <c r="F228">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G228">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0.007018912068629362</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D229">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E229">
+        <v>0.5</v>
+      </c>
+      <c r="F229">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G229">
+        <v>0.09544008956245009</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0.008188730746734256</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D230">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E230">
+        <v>0.5</v>
+      </c>
+      <c r="F230">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G230">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0.1181516864885943</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D231">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E231">
+        <v>0.5</v>
+      </c>
+      <c r="F231">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G231">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0.009748488984207444</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D232">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E232">
+        <v>0.5</v>
+      </c>
+      <c r="F232">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G232">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0.06180542015987521</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D233">
+        <v>0.002380952380952381</v>
+      </c>
+      <c r="E233">
+        <v>0.5</v>
+      </c>
+      <c r="F233">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G233">
+        <v>0.08893281779639062</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0.1711834665626828</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="D234">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E234">
+        <v>0.5</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0.1222825985549763</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0.09241567557028658</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0.6825396825396824</v>
+      </c>
+      <c r="D235">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E235">
+        <v>0.5</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0.0698758150286618</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0.02222655488399298</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>0.5</v>
+      </c>
+      <c r="C236">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D236">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="E236">
+        <v>0.5</v>
+      </c>
+      <c r="F236">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G236">
+        <v>0.1073701396303477</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0.005849093390524469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>0.5</v>
+      </c>
+      <c r="C237">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D237">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="E237">
+        <v>0.5</v>
+      </c>
+      <c r="F237">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G237">
+        <v>0.1073701396303477</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0.004289335153051276</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>0.5</v>
+      </c>
+      <c r="C238">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D238">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="E238">
+        <v>0.5</v>
+      </c>
+      <c r="F238">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G238">
+        <v>0.1073701396303477</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0.004679274712419575</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>0.5</v>
+      </c>
+      <c r="C239">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D239">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="E239">
+        <v>0.5</v>
+      </c>
+      <c r="F239">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G239">
+        <v>0.1073701396303477</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0.004679274712419575</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>0.5</v>
+      </c>
+      <c r="C240">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D240">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="E240">
+        <v>0.5</v>
+      </c>
+      <c r="F240">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G240">
+        <v>0.1073701396303477</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0.0005849093390524469</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>0.5</v>
+      </c>
+      <c r="C241">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D241">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="E241">
+        <v>0.5</v>
+      </c>
+      <c r="F241">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="G241">
+        <v>0.1073701396303477</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0.001169818678104894</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0.5</v>
+      </c>
+      <c r="F242">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G242">
+        <v>0.0526931967782398</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0.01637746149346851</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0.5</v>
+      </c>
+      <c r="F243">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G243">
+        <v>0.0526931967782398</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0.5</v>
+      </c>
+      <c r="F244">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G244">
+        <v>0.0526931967782398</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0.01286800545915383</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0.5</v>
+      </c>
+      <c r="F245">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G245">
+        <v>0.0526931967782398</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0.0684343926691363</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0.5</v>
+      </c>
+      <c r="F246">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G246">
+        <v>0.0526931967782398</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0.0286605576135699</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>0.5</v>
+      </c>
+      <c r="C247">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D247">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="E247">
+        <v>0.5</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0.00766826648975294</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0.01247806589978553</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>0.5</v>
+      </c>
+      <c r="C248">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="D248">
+        <v>0.01190476190476191</v>
+      </c>
+      <c r="E248">
+        <v>0.5</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0.09982253366366423</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0.01813218951062585</v>
       </c>
     </row>
   </sheetData>
